--- a/Daten-Tabelle.xlsx
+++ b/Daten-Tabelle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marvi\Desktop\Hochsprachenprogrammierung\Sprint\HSP-SoSe-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DB6DDE-3CEF-4319-AE79-B3E2829CD315}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B40DFD3-D737-4F87-810B-1663A23BA519}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{BCA7EF73-EA4B-48ED-AA2D-05ECA064157F}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{BCA7EF73-EA4B-48ED-AA2D-05ECA064157F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,140 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+  <si>
+    <t>getDichte</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Stahl</t>
+  </si>
+  <si>
+    <t>Aluminium</t>
+  </si>
+  <si>
+    <t>Titan</t>
+  </si>
+  <si>
+    <t>Messing</t>
+  </si>
+  <si>
+    <t>Kupfer</t>
+  </si>
+  <si>
+    <t>Bronze</t>
+  </si>
+  <si>
+    <t>Dichte g/cm3</t>
+  </si>
+  <si>
+    <t>Festigkeitsklasse</t>
+  </si>
+  <si>
+    <t>Metrisch</t>
+  </si>
+  <si>
+    <t>M1,6</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M2,5</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>M16</t>
+  </si>
+  <si>
+    <t>M20</t>
+  </si>
+  <si>
+    <t>M24</t>
+  </si>
+  <si>
+    <t>M30</t>
+  </si>
+  <si>
+    <t>M36</t>
+  </si>
+  <si>
+    <t>M42</t>
+  </si>
+  <si>
+    <t>Durchmesser</t>
+  </si>
+  <si>
+    <t>Steigung</t>
+  </si>
+  <si>
+    <t>Flankendurchmesser</t>
+  </si>
+  <si>
+    <t>Kerndurchmesser</t>
+  </si>
+  <si>
+    <t>Kernlochdurchmesser</t>
+  </si>
+  <si>
+    <t>Zylinderkopf Höhe</t>
+  </si>
+  <si>
+    <t>Zylinderkopf Durchmesser</t>
+  </si>
+  <si>
+    <t>Zylinderkopf SW</t>
+  </si>
+  <si>
+    <t>Zylinderkopf Volumen</t>
+  </si>
+  <si>
+    <t>Sechskant Höhe</t>
+  </si>
+  <si>
+    <t>Sechskant SW</t>
+  </si>
+  <si>
+    <t>Sechskant Volumen</t>
+  </si>
+  <si>
+    <t>Senkkopf Höhe</t>
+  </si>
+  <si>
+    <t>Senkkopf Durchmesser</t>
+  </si>
+  <si>
+    <t>Senkkopf SW</t>
+  </si>
+  <si>
+    <t>Senkkopf Volumen</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -64,8 +198,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -380,12 +517,1051 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E38E15-73F3-4FF6-80D2-D823E0AC1EDB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>7.85</v>
+      </c>
+      <c r="C3">
+        <v>2.7</v>
+      </c>
+      <c r="D3">
+        <v>4.5069999999999997</v>
+      </c>
+      <c r="E3">
+        <v>8.73</v>
+      </c>
+      <c r="F3">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="G3">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>3.6</v>
+      </c>
+      <c r="C5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D5">
+        <v>4.8</v>
+      </c>
+      <c r="E5">
+        <v>5.8</v>
+      </c>
+      <c r="F5">
+        <v>6.8</v>
+      </c>
+      <c r="G5">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H5">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I5">
+        <v>10.9</v>
+      </c>
+      <c r="J5">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>1.6</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>0.25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>12</v>
+      </c>
+      <c r="L9">
+        <v>16</v>
+      </c>
+      <c r="M9">
+        <v>20</v>
+      </c>
+      <c r="N9">
+        <v>24</v>
+      </c>
+      <c r="O9">
+        <v>30</v>
+      </c>
+      <c r="P9">
+        <v>36</v>
+      </c>
+      <c r="Q9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>0.35</v>
+      </c>
+      <c r="C10">
+        <v>0.4</v>
+      </c>
+      <c r="D10">
+        <v>0.45</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>0.7</v>
+      </c>
+      <c r="G10">
+        <v>0.8</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.25</v>
+      </c>
+      <c r="J10">
+        <v>1.5</v>
+      </c>
+      <c r="K10">
+        <v>1.75</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>2.5</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>3.5</v>
+      </c>
+      <c r="P10">
+        <v>4</v>
+      </c>
+      <c r="Q10">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <f>B9-(0.6495*B10)</f>
+        <v>1.3726750000000001</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:Q11" si="0">C9-(0.6495*C10)</f>
+        <v>1.7402</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-4.2275000000000007E-2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>2.6752500000000001</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>3.54535</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>4.4804000000000004</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>5.3505000000000003</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>7.1881250000000003</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>9.0257500000000004</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>10.863375</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>14.701000000000001</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>18.376249999999999</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>22.051500000000001</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>27.726749999999999</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>33.402000000000001</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>39.077249999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <f>B9 -(1.2269 * B10)</f>
+        <v>1.170585</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:Q12" si="1">C9 -(1.2269 * C10)</f>
+        <v>1.5092399999999999</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>-0.30210500000000007</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>2.3865499999999997</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>3.1411699999999998</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>4.0184800000000003</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>4.7730999999999995</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>6.4663749999999993</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>8.1596499999999992</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>9.852924999999999</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>13.546199999999999</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>16.932749999999999</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>20.319299999999998</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>25.705849999999998</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>31.092399999999998</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>36.478949999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <f>B9-B10</f>
+        <v>1.25</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:Q13" si="2">C9-C10</f>
+        <v>1.6</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>-0.2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>3.3</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>4.2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>6.75</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>10.25</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>17.5</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>26.5</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>1.6</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2.5</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>12</v>
+      </c>
+      <c r="L15">
+        <v>16</v>
+      </c>
+      <c r="M15">
+        <v>20</v>
+      </c>
+      <c r="N15">
+        <v>24</v>
+      </c>
+      <c r="O15">
+        <v>30</v>
+      </c>
+      <c r="P15">
+        <v>36</v>
+      </c>
+      <c r="Q15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>3.8</v>
+      </c>
+      <c r="D16">
+        <v>4.5</v>
+      </c>
+      <c r="E16">
+        <v>5.5</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <v>8.5</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>13</v>
+      </c>
+      <c r="J16">
+        <v>16</v>
+      </c>
+      <c r="K16">
+        <v>18</v>
+      </c>
+      <c r="L16">
+        <v>24</v>
+      </c>
+      <c r="M16">
+        <v>30</v>
+      </c>
+      <c r="N16">
+        <v>36</v>
+      </c>
+      <c r="O16">
+        <v>45</v>
+      </c>
+      <c r="P16">
+        <v>54</v>
+      </c>
+      <c r="Q16">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <v>1.5</v>
+      </c>
+      <c r="C17">
+        <v>1.5</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2.5</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>8</v>
+      </c>
+      <c r="K17">
+        <v>10</v>
+      </c>
+      <c r="L17">
+        <v>14</v>
+      </c>
+      <c r="M17">
+        <v>17</v>
+      </c>
+      <c r="N17">
+        <v>19</v>
+      </c>
+      <c r="O17">
+        <v>22</v>
+      </c>
+      <c r="P17">
+        <v>27</v>
+      </c>
+      <c r="Q17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <f>PI()/4*B16*B16 * B15 - ((6*(B17/COS(RADIANS(30)))*SIN(RADIANS(180/6))*B17)/4 * B15 *2/3)</f>
+        <v>9.2312725838406031</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:Q18" si="3">PI()/4*C16*C16 * C15 - ((6*(C17/COS(RADIANS(30)))*SIN(RADIANS(180/6))*C17)/4 * C15 *2/3)</f>
+        <v>20.08422274756499</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>33.987279330099561</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>60.449565781012943</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>133.15343033507332</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>237.53706499215818</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>384.63635766002511</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>895.58143938673788</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>1641.1151260161071</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>2360.8077362617282</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>5427.6590296922177</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>10800.082385238031</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>19426.861742055316</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="3"/>
+        <v>39329.812517761631</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="3"/>
+        <v>67295.977136197995</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="3"/>
+        <v>106093.62266472042</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C20">
+        <v>1.4</v>
+      </c>
+      <c r="D20">
+        <v>1.7</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>2.8</v>
+      </c>
+      <c r="G20">
+        <v>3.5</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>5.3</v>
+      </c>
+      <c r="J20">
+        <v>6.4</v>
+      </c>
+      <c r="K20">
+        <v>7.5</v>
+      </c>
+      <c r="L20">
+        <v>10</v>
+      </c>
+      <c r="M20">
+        <v>12.5</v>
+      </c>
+      <c r="N20">
+        <v>15</v>
+      </c>
+      <c r="O20">
+        <v>18.7</v>
+      </c>
+      <c r="P20">
+        <v>22.5</v>
+      </c>
+      <c r="Q20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <v>3.2</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>5.5</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>13</v>
+      </c>
+      <c r="J21">
+        <v>17</v>
+      </c>
+      <c r="K21">
+        <v>19</v>
+      </c>
+      <c r="L21">
+        <v>24</v>
+      </c>
+      <c r="M21">
+        <v>30</v>
+      </c>
+      <c r="N21">
+        <v>36</v>
+      </c>
+      <c r="O21">
+        <v>46</v>
+      </c>
+      <c r="P21">
+        <v>55</v>
+      </c>
+      <c r="Q21">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:D22" si="4">((6*(B21/COS(RADIANS(30)))*SIN(RADIANS(180/6))*B21)/4) *B20</f>
+        <v>9.7549101482279159</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="4"/>
+        <v>19.39896904477142</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="4"/>
+        <v>36.806079660838627</v>
+      </c>
+      <c r="E22">
+        <f>((6*(E21/COS(RADIANS(30)))*SIN(RADIANS(180/6))*E21)/4) *E20</f>
+        <v>52.394536928958516</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22:Q22" si="5">((6*(F21/COS(RADIANS(30)))*SIN(RADIANS(180/6))*F21)/4) *F20</f>
+        <v>118.81868539922495</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>193.98969044771422</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="5"/>
+        <v>346.41016151377534</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="5"/>
+        <v>775.69895416972145</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>1601.8005868396976</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="5"/>
+        <v>2344.763780746367</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="5"/>
+        <v>4988.3063257983658</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>9742.7857925749322</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="5"/>
+        <v>16835.533849569481</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="5"/>
+        <v>34267.932407427201</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="5"/>
+        <v>58943.85404507834</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="5"/>
+        <v>95132.89060572056</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24">
+        <v>1.9</v>
+      </c>
+      <c r="F24">
+        <v>2.5</v>
+      </c>
+      <c r="G24">
+        <v>3.1</v>
+      </c>
+      <c r="H24">
+        <v>3.7</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>6.2</v>
+      </c>
+      <c r="K24">
+        <v>7.4</v>
+      </c>
+      <c r="L24">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="M24">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="N24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <v>5.5</v>
+      </c>
+      <c r="F25">
+        <v>7.5</v>
+      </c>
+      <c r="G25">
+        <v>9.4</v>
+      </c>
+      <c r="H25">
+        <v>11.3</v>
+      </c>
+      <c r="I25">
+        <v>15.2</v>
+      </c>
+      <c r="J25">
+        <v>19.2</v>
+      </c>
+      <c r="K25">
+        <v>23.1</v>
+      </c>
+      <c r="L25">
+        <v>29</v>
+      </c>
+      <c r="M25">
+        <v>36</v>
+      </c>
+      <c r="N25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>2.5</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>6</v>
+      </c>
+      <c r="K26">
+        <v>8</v>
+      </c>
+      <c r="L26">
+        <v>10</v>
+      </c>
+      <c r="M26">
+        <v>12</v>
+      </c>
+      <c r="N26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27">
+        <f>PI()/4*E25*E25 * E24 * 0.5  - ((6*(E26/COS(RADIANS(30)))*SIN(RADIANS(180/6))*E26)/4 * E24 *2/3)</f>
+        <v>18.182517674793012</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27:N27" si="6">PI()/4*F25*F25 * F24 * 0.5  - ((6*(F26/COS(RADIANS(30)))*SIN(RADIANS(180/6))*F26)/4 * F24 *2/3)</f>
+        <v>46.202210407795178</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="6"/>
+        <v>91.458489152197174</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="6"/>
+        <v>151.35272330978151</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="6"/>
+        <v>381.47719552966294</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="6"/>
+        <v>768.67587467686519</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="6"/>
+        <v>1277.2232742026893</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="6"/>
+        <v>2398.2191269490472</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="6"/>
+        <v>4343.1556254060515</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="6"/>
+        <v>6777.885107036298</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A7:Q7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Daten-Tabelle.xlsx
+++ b/Daten-Tabelle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marvi\Desktop\Hochsprachenprogrammierung\Sprint\HSP-SoSe-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B40DFD3-D737-4F87-810B-1663A23BA519}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ECF4C3-4C05-46C2-A56A-A68FC48106B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{BCA7EF73-EA4B-48ED-AA2D-05ECA064157F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{BCA7EF73-EA4B-48ED-AA2D-05ECA064157F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>getDichte</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>Senkkopf Volumen</t>
+  </si>
+  <si>
+    <t>Schraubenlänge</t>
+  </si>
+  <si>
+    <t>Gewindelänge</t>
   </si>
 </sst>
 </file>
@@ -186,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -194,13 +200,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -517,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E38E15-73F3-4FF6-80D2-D823E0AC1EDB}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,1027 +565,1118 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>7.85</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>2.7</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>4.5069999999999997</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>8.73</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>8.9600000000000009</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>8.9</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>3.6</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>4.8</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>5.8</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>6.8</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>10.9</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>12.9</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q13" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B9">
+      <c r="B14" s="2">
         <v>1.6</v>
       </c>
-      <c r="C9">
+      <c r="C14" s="2">
         <v>2</v>
       </c>
-      <c r="D9">
+      <c r="D14" s="2">
         <v>0.25</v>
       </c>
-      <c r="E9">
+      <c r="E14" s="2">
         <v>3</v>
       </c>
-      <c r="F9">
+      <c r="F14" s="2">
         <v>4</v>
       </c>
-      <c r="G9">
+      <c r="G14" s="2">
         <v>5</v>
       </c>
-      <c r="H9">
+      <c r="H14" s="2">
         <v>6</v>
       </c>
-      <c r="I9">
+      <c r="I14" s="2">
         <v>8</v>
       </c>
-      <c r="J9">
+      <c r="J14" s="2">
         <v>10</v>
       </c>
-      <c r="K9">
+      <c r="K14" s="2">
         <v>12</v>
       </c>
-      <c r="L9">
+      <c r="L14" s="2">
         <v>16</v>
       </c>
-      <c r="M9">
+      <c r="M14" s="2">
         <v>20</v>
       </c>
-      <c r="N9">
+      <c r="N14" s="2">
         <v>24</v>
       </c>
-      <c r="O9">
+      <c r="O14" s="2">
         <v>30</v>
       </c>
-      <c r="P9">
+      <c r="P14" s="2">
         <v>36</v>
       </c>
-      <c r="Q9">
+      <c r="Q14" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B10">
+      <c r="B15" s="2">
         <v>0.35</v>
       </c>
-      <c r="C10">
+      <c r="C15" s="2">
         <v>0.4</v>
       </c>
-      <c r="D10">
+      <c r="D15" s="2">
         <v>0.45</v>
       </c>
-      <c r="E10">
+      <c r="E15" s="2">
         <v>0.5</v>
       </c>
-      <c r="F10">
+      <c r="F15" s="2">
         <v>0.7</v>
       </c>
-      <c r="G10">
+      <c r="G15" s="2">
         <v>0.8</v>
       </c>
-      <c r="H10">
+      <c r="H15" s="2">
         <v>1</v>
       </c>
-      <c r="I10">
+      <c r="I15" s="2">
         <v>1.25</v>
       </c>
-      <c r="J10">
+      <c r="J15" s="2">
         <v>1.5</v>
       </c>
-      <c r="K10">
+      <c r="K15" s="2">
         <v>1.75</v>
       </c>
-      <c r="L10">
+      <c r="L15" s="2">
         <v>2</v>
       </c>
-      <c r="M10">
+      <c r="M15" s="2">
         <v>2.5</v>
       </c>
-      <c r="N10">
+      <c r="N15" s="2">
         <v>3</v>
       </c>
-      <c r="O10">
+      <c r="O15" s="2">
         <v>3.5</v>
       </c>
-      <c r="P10">
+      <c r="P15" s="2">
         <v>4</v>
       </c>
-      <c r="Q10">
+      <c r="Q15" s="2">
         <v>4.5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11">
-        <f>B9-(0.6495*B10)</f>
+      <c r="B16" s="2">
+        <f>B14-(0.6495*B15)</f>
         <v>1.3726750000000001</v>
       </c>
-      <c r="C11">
-        <f t="shared" ref="C11:Q11" si="0">C9-(0.6495*C10)</f>
+      <c r="C16" s="2">
+        <f t="shared" ref="C16:Q16" si="0">C14-(0.6495*C15)</f>
         <v>1.7402</v>
       </c>
-      <c r="D11">
+      <c r="D16" s="2">
         <f t="shared" si="0"/>
         <v>-4.2275000000000007E-2</v>
       </c>
-      <c r="E11">
+      <c r="E16" s="2">
         <f t="shared" si="0"/>
         <v>2.6752500000000001</v>
       </c>
-      <c r="F11">
+      <c r="F16" s="2">
         <f t="shared" si="0"/>
         <v>3.54535</v>
       </c>
-      <c r="G11">
+      <c r="G16" s="2">
         <f t="shared" si="0"/>
         <v>4.4804000000000004</v>
       </c>
-      <c r="H11">
+      <c r="H16" s="2">
         <f t="shared" si="0"/>
         <v>5.3505000000000003</v>
       </c>
-      <c r="I11">
+      <c r="I16" s="2">
         <f t="shared" si="0"/>
         <v>7.1881250000000003</v>
       </c>
-      <c r="J11">
+      <c r="J16" s="2">
         <f t="shared" si="0"/>
         <v>9.0257500000000004</v>
       </c>
-      <c r="K11">
+      <c r="K16" s="2">
         <f t="shared" si="0"/>
         <v>10.863375</v>
       </c>
-      <c r="L11">
+      <c r="L16" s="2">
         <f t="shared" si="0"/>
         <v>14.701000000000001</v>
       </c>
-      <c r="M11">
+      <c r="M16" s="2">
         <f t="shared" si="0"/>
         <v>18.376249999999999</v>
       </c>
-      <c r="N11">
+      <c r="N16" s="2">
         <f t="shared" si="0"/>
         <v>22.051500000000001</v>
       </c>
-      <c r="O11">
+      <c r="O16" s="2">
         <f t="shared" si="0"/>
         <v>27.726749999999999</v>
       </c>
-      <c r="P11">
+      <c r="P16" s="2">
         <f t="shared" si="0"/>
         <v>33.402000000000001</v>
       </c>
-      <c r="Q11">
+      <c r="Q16" s="2">
         <f t="shared" si="0"/>
         <v>39.077249999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B12">
-        <f>B9 -(1.2269 * B10)</f>
+      <c r="B17" s="2">
+        <f>B14 -(1.2269 * B15)</f>
         <v>1.170585</v>
       </c>
-      <c r="C12">
-        <f t="shared" ref="C12:Q12" si="1">C9 -(1.2269 * C10)</f>
+      <c r="C17" s="2">
+        <f t="shared" ref="C17:Q17" si="1">C14 -(1.2269 * C15)</f>
         <v>1.5092399999999999</v>
       </c>
-      <c r="D12">
+      <c r="D17" s="2">
         <f t="shared" si="1"/>
         <v>-0.30210500000000007</v>
       </c>
-      <c r="E12">
+      <c r="E17" s="2">
         <f t="shared" si="1"/>
         <v>2.3865499999999997</v>
       </c>
-      <c r="F12">
+      <c r="F17" s="2">
         <f t="shared" si="1"/>
         <v>3.1411699999999998</v>
       </c>
-      <c r="G12">
+      <c r="G17" s="2">
         <f t="shared" si="1"/>
         <v>4.0184800000000003</v>
       </c>
-      <c r="H12">
+      <c r="H17" s="2">
         <f t="shared" si="1"/>
         <v>4.7730999999999995</v>
       </c>
-      <c r="I12">
+      <c r="I17" s="2">
         <f t="shared" si="1"/>
         <v>6.4663749999999993</v>
       </c>
-      <c r="J12">
+      <c r="J17" s="2">
         <f t="shared" si="1"/>
         <v>8.1596499999999992</v>
       </c>
-      <c r="K12">
+      <c r="K17" s="2">
         <f t="shared" si="1"/>
         <v>9.852924999999999</v>
       </c>
-      <c r="L12">
+      <c r="L17" s="2">
         <f t="shared" si="1"/>
         <v>13.546199999999999</v>
       </c>
-      <c r="M12">
+      <c r="M17" s="2">
         <f t="shared" si="1"/>
         <v>16.932749999999999</v>
       </c>
-      <c r="N12">
+      <c r="N17" s="2">
         <f t="shared" si="1"/>
         <v>20.319299999999998</v>
       </c>
-      <c r="O12">
+      <c r="O17" s="2">
         <f t="shared" si="1"/>
         <v>25.705849999999998</v>
       </c>
-      <c r="P12">
+      <c r="P17" s="2">
         <f t="shared" si="1"/>
         <v>31.092399999999998</v>
       </c>
-      <c r="Q12">
+      <c r="Q17" s="2">
         <f t="shared" si="1"/>
         <v>36.478949999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B13">
-        <f>B9-B10</f>
+      <c r="B18" s="2">
+        <f>B14-B15</f>
         <v>1.25</v>
       </c>
-      <c r="C13">
-        <f t="shared" ref="C13:Q13" si="2">C9-C10</f>
+      <c r="C18" s="2">
+        <f t="shared" ref="C18:Q18" si="2">C14-C15</f>
         <v>1.6</v>
       </c>
-      <c r="D13">
+      <c r="D18" s="2">
         <f t="shared" si="2"/>
         <v>-0.2</v>
       </c>
-      <c r="E13">
+      <c r="E18" s="2">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="F13">
+      <c r="F18" s="2">
         <f t="shared" si="2"/>
         <v>3.3</v>
       </c>
-      <c r="G13">
+      <c r="G18" s="2">
         <f t="shared" si="2"/>
         <v>4.2</v>
       </c>
-      <c r="H13">
+      <c r="H18" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I13">
+      <c r="I18" s="2">
         <f t="shared" si="2"/>
         <v>6.75</v>
       </c>
-      <c r="J13">
+      <c r="J18" s="2">
         <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
-      <c r="K13">
+      <c r="K18" s="2">
         <f t="shared" si="2"/>
         <v>10.25</v>
       </c>
-      <c r="L13">
+      <c r="L18" s="2">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="M13">
+      <c r="M18" s="2">
         <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
-      <c r="N13">
+      <c r="N18" s="2">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="O13">
+      <c r="O18" s="2">
         <f t="shared" si="2"/>
         <v>26.5</v>
       </c>
-      <c r="P13">
+      <c r="P18" s="2">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="Q13">
+      <c r="Q18" s="2">
         <f t="shared" si="2"/>
         <v>37.5</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B15">
+      <c r="B20" s="2">
         <v>1.6</v>
       </c>
-      <c r="C15">
+      <c r="C20" s="2">
         <v>2</v>
       </c>
-      <c r="D15">
+      <c r="D20" s="2">
         <v>2.5</v>
       </c>
-      <c r="E15">
+      <c r="E20" s="2">
         <v>3</v>
       </c>
-      <c r="F15">
+      <c r="F20" s="2">
         <v>4</v>
       </c>
-      <c r="G15">
+      <c r="G20" s="2">
         <v>5</v>
       </c>
-      <c r="H15">
+      <c r="H20" s="2">
         <v>6</v>
       </c>
-      <c r="I15">
+      <c r="I20" s="2">
         <v>8</v>
       </c>
-      <c r="J15">
+      <c r="J20" s="2">
         <v>10</v>
       </c>
-      <c r="K15">
+      <c r="K20" s="2">
         <v>12</v>
       </c>
-      <c r="L15">
+      <c r="L20" s="2">
         <v>16</v>
       </c>
-      <c r="M15">
+      <c r="M20" s="2">
         <v>20</v>
       </c>
-      <c r="N15">
+      <c r="N20" s="2">
         <v>24</v>
       </c>
-      <c r="O15">
+      <c r="O20" s="2">
         <v>30</v>
       </c>
-      <c r="P15">
+      <c r="P20" s="2">
         <v>36</v>
       </c>
-      <c r="Q15">
+      <c r="Q20" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B16">
+      <c r="B21" s="2">
         <v>3</v>
       </c>
-      <c r="C16">
+      <c r="C21" s="2">
         <v>3.8</v>
       </c>
-      <c r="D16">
+      <c r="D21" s="2">
         <v>4.5</v>
       </c>
-      <c r="E16">
+      <c r="E21" s="2">
         <v>5.5</v>
       </c>
-      <c r="F16">
+      <c r="F21" s="2">
         <v>7</v>
       </c>
-      <c r="G16">
+      <c r="G21" s="2">
         <v>8.5</v>
       </c>
-      <c r="H16">
+      <c r="H21" s="2">
         <v>10</v>
       </c>
-      <c r="I16">
+      <c r="I21" s="2">
         <v>13</v>
       </c>
-      <c r="J16">
+      <c r="J21" s="2">
         <v>16</v>
       </c>
-      <c r="K16">
+      <c r="K21" s="2">
         <v>18</v>
       </c>
-      <c r="L16">
+      <c r="L21" s="2">
         <v>24</v>
       </c>
-      <c r="M16">
+      <c r="M21" s="2">
         <v>30</v>
       </c>
-      <c r="N16">
+      <c r="N21" s="2">
         <v>36</v>
       </c>
-      <c r="O16">
+      <c r="O21" s="2">
         <v>45</v>
       </c>
-      <c r="P16">
+      <c r="P21" s="2">
         <v>54</v>
       </c>
-      <c r="Q16">
+      <c r="Q21" s="2">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B17">
+      <c r="B22" s="2">
         <v>1.5</v>
       </c>
-      <c r="C17">
+      <c r="C22" s="2">
         <v>1.5</v>
       </c>
-      <c r="D17">
+      <c r="D22" s="2">
         <v>2</v>
       </c>
-      <c r="E17">
+      <c r="E22" s="2">
         <v>2.5</v>
       </c>
-      <c r="F17">
+      <c r="F22" s="2">
         <v>3</v>
       </c>
-      <c r="G17">
+      <c r="G22" s="2">
         <v>4</v>
       </c>
-      <c r="H17">
+      <c r="H22" s="2">
         <v>5</v>
       </c>
-      <c r="I17">
+      <c r="I22" s="2">
         <v>6</v>
       </c>
-      <c r="J17">
+      <c r="J22" s="2">
         <v>8</v>
       </c>
-      <c r="K17">
+      <c r="K22" s="2">
         <v>10</v>
       </c>
-      <c r="L17">
+      <c r="L22" s="2">
         <v>14</v>
       </c>
-      <c r="M17">
+      <c r="M22" s="2">
         <v>17</v>
       </c>
-      <c r="N17">
+      <c r="N22" s="2">
         <v>19</v>
       </c>
-      <c r="O17">
+      <c r="O22" s="2">
         <v>22</v>
       </c>
-      <c r="P17">
+      <c r="P22" s="2">
         <v>27</v>
       </c>
-      <c r="Q17">
+      <c r="Q22" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B18">
-        <f>PI()/4*B16*B16 * B15 - ((6*(B17/COS(RADIANS(30)))*SIN(RADIANS(180/6))*B17)/4 * B15 *2/3)</f>
+      <c r="B23" s="2">
+        <f>PI()/4*B21*B21 * B20 - ((6*(B22/COS(RADIANS(30)))*SIN(RADIANS(180/6))*B22)/4 * B20 *2/3)</f>
         <v>9.2312725838406031</v>
       </c>
-      <c r="C18">
-        <f t="shared" ref="C18:Q18" si="3">PI()/4*C16*C16 * C15 - ((6*(C17/COS(RADIANS(30)))*SIN(RADIANS(180/6))*C17)/4 * C15 *2/3)</f>
+      <c r="C23" s="2">
+        <f t="shared" ref="C23:Q23" si="3">PI()/4*C21*C21 * C20 - ((6*(C22/COS(RADIANS(30)))*SIN(RADIANS(180/6))*C22)/4 * C20 *2/3)</f>
         <v>20.08422274756499</v>
       </c>
-      <c r="D18">
+      <c r="D23" s="2">
         <f t="shared" si="3"/>
         <v>33.987279330099561</v>
       </c>
-      <c r="E18">
+      <c r="E23" s="2">
         <f t="shared" si="3"/>
         <v>60.449565781012943</v>
       </c>
-      <c r="F18">
+      <c r="F23" s="2">
         <f t="shared" si="3"/>
         <v>133.15343033507332</v>
       </c>
-      <c r="G18">
+      <c r="G23" s="2">
         <f t="shared" si="3"/>
         <v>237.53706499215818</v>
       </c>
-      <c r="H18">
+      <c r="H23" s="2">
         <f t="shared" si="3"/>
         <v>384.63635766002511</v>
       </c>
-      <c r="I18">
+      <c r="I23" s="2">
         <f t="shared" si="3"/>
         <v>895.58143938673788</v>
       </c>
-      <c r="J18">
+      <c r="J23" s="2">
         <f t="shared" si="3"/>
         <v>1641.1151260161071</v>
       </c>
-      <c r="K18">
+      <c r="K23" s="2">
         <f t="shared" si="3"/>
         <v>2360.8077362617282</v>
       </c>
-      <c r="L18">
+      <c r="L23" s="2">
         <f t="shared" si="3"/>
         <v>5427.6590296922177</v>
       </c>
-      <c r="M18">
+      <c r="M23" s="2">
         <f t="shared" si="3"/>
         <v>10800.082385238031</v>
       </c>
-      <c r="N18">
+      <c r="N23" s="2">
         <f t="shared" si="3"/>
         <v>19426.861742055316</v>
       </c>
-      <c r="O18">
+      <c r="O23" s="2">
         <f t="shared" si="3"/>
         <v>39329.812517761631</v>
       </c>
-      <c r="P18">
+      <c r="P23" s="2">
         <f t="shared" si="3"/>
         <v>67295.977136197995</v>
       </c>
-      <c r="Q18">
+      <c r="Q23" s="2">
         <f t="shared" si="3"/>
         <v>106093.62266472042</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B20">
+      <c r="B25" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C20">
+      <c r="C25" s="2">
         <v>1.4</v>
       </c>
-      <c r="D20">
+      <c r="D25" s="2">
         <v>1.7</v>
       </c>
-      <c r="E20">
+      <c r="E25" s="2">
         <v>2</v>
       </c>
-      <c r="F20">
+      <c r="F25" s="2">
         <v>2.8</v>
       </c>
-      <c r="G20">
+      <c r="G25" s="2">
         <v>3.5</v>
       </c>
-      <c r="H20">
+      <c r="H25" s="2">
         <v>4</v>
       </c>
-      <c r="I20">
+      <c r="I25" s="2">
         <v>5.3</v>
       </c>
-      <c r="J20">
+      <c r="J25" s="2">
         <v>6.4</v>
       </c>
-      <c r="K20">
+      <c r="K25" s="2">
         <v>7.5</v>
       </c>
-      <c r="L20">
+      <c r="L25" s="2">
         <v>10</v>
       </c>
-      <c r="M20">
+      <c r="M25" s="2">
         <v>12.5</v>
       </c>
-      <c r="N20">
+      <c r="N25" s="2">
         <v>15</v>
       </c>
-      <c r="O20">
+      <c r="O25" s="2">
         <v>18.7</v>
       </c>
-      <c r="P20">
+      <c r="P25" s="2">
         <v>22.5</v>
       </c>
-      <c r="Q20">
+      <c r="Q25" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B21">
+      <c r="B26" s="2">
         <v>3.2</v>
       </c>
-      <c r="C21">
+      <c r="C26" s="2">
         <v>4</v>
       </c>
-      <c r="D21">
+      <c r="D26" s="2">
         <v>5</v>
       </c>
-      <c r="E21">
+      <c r="E26" s="2">
         <v>5.5</v>
       </c>
-      <c r="F21">
+      <c r="F26" s="2">
         <v>7</v>
       </c>
-      <c r="G21">
+      <c r="G26" s="2">
         <v>8</v>
       </c>
-      <c r="H21">
+      <c r="H26" s="2">
         <v>10</v>
       </c>
-      <c r="I21">
+      <c r="I26" s="2">
         <v>13</v>
       </c>
-      <c r="J21">
+      <c r="J26" s="2">
         <v>17</v>
       </c>
-      <c r="K21">
+      <c r="K26" s="2">
         <v>19</v>
       </c>
-      <c r="L21">
+      <c r="L26" s="2">
         <v>24</v>
       </c>
-      <c r="M21">
+      <c r="M26" s="2">
         <v>30</v>
       </c>
-      <c r="N21">
+      <c r="N26" s="2">
         <v>36</v>
       </c>
-      <c r="O21">
+      <c r="O26" s="2">
         <v>46</v>
       </c>
-      <c r="P21">
+      <c r="P26" s="2">
         <v>55</v>
       </c>
-      <c r="Q21">
+      <c r="Q26" s="2">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22">
-        <f t="shared" ref="B22:D22" si="4">((6*(B21/COS(RADIANS(30)))*SIN(RADIANS(180/6))*B21)/4) *B20</f>
+      <c r="B27" s="2">
+        <f t="shared" ref="B27:D27" si="4">((6*(B26/COS(RADIANS(30)))*SIN(RADIANS(180/6))*B26)/4) *B25</f>
         <v>9.7549101482279159</v>
       </c>
-      <c r="C22">
+      <c r="C27" s="2">
         <f t="shared" si="4"/>
         <v>19.39896904477142</v>
       </c>
-      <c r="D22">
+      <c r="D27" s="2">
         <f t="shared" si="4"/>
         <v>36.806079660838627</v>
       </c>
-      <c r="E22">
-        <f>((6*(E21/COS(RADIANS(30)))*SIN(RADIANS(180/6))*E21)/4) *E20</f>
+      <c r="E27" s="2">
+        <f>((6*(E26/COS(RADIANS(30)))*SIN(RADIANS(180/6))*E26)/4) *E25</f>
         <v>52.394536928958516</v>
       </c>
-      <c r="F22">
-        <f t="shared" ref="F22:Q22" si="5">((6*(F21/COS(RADIANS(30)))*SIN(RADIANS(180/6))*F21)/4) *F20</f>
+      <c r="F27" s="2">
+        <f t="shared" ref="F27:Q27" si="5">((6*(F26/COS(RADIANS(30)))*SIN(RADIANS(180/6))*F26)/4) *F25</f>
         <v>118.81868539922495</v>
       </c>
-      <c r="G22">
+      <c r="G27" s="2">
         <f t="shared" si="5"/>
         <v>193.98969044771422</v>
       </c>
-      <c r="H22">
+      <c r="H27" s="2">
         <f t="shared" si="5"/>
         <v>346.41016151377534</v>
       </c>
-      <c r="I22">
+      <c r="I27" s="2">
         <f t="shared" si="5"/>
         <v>775.69895416972145</v>
       </c>
-      <c r="J22">
+      <c r="J27" s="2">
         <f t="shared" si="5"/>
         <v>1601.8005868396976</v>
       </c>
-      <c r="K22">
+      <c r="K27" s="2">
         <f t="shared" si="5"/>
         <v>2344.763780746367</v>
       </c>
-      <c r="L22">
+      <c r="L27" s="2">
         <f t="shared" si="5"/>
         <v>4988.3063257983658</v>
       </c>
-      <c r="M22">
+      <c r="M27" s="2">
         <f t="shared" si="5"/>
         <v>9742.7857925749322</v>
       </c>
-      <c r="N22">
+      <c r="N27" s="2">
         <f t="shared" si="5"/>
         <v>16835.533849569481</v>
       </c>
-      <c r="O22">
+      <c r="O27" s="2">
         <f t="shared" si="5"/>
         <v>34267.932407427201</v>
       </c>
-      <c r="P22">
+      <c r="P27" s="2">
         <f t="shared" si="5"/>
         <v>58943.85404507834</v>
       </c>
-      <c r="Q22">
+      <c r="Q27" s="2">
         <f t="shared" si="5"/>
         <v>95132.89060572056</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E24">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2">
         <v>1.9</v>
       </c>
-      <c r="F24">
+      <c r="F29" s="2">
         <v>2.5</v>
       </c>
-      <c r="G24">
+      <c r="G29" s="2">
         <v>3.1</v>
       </c>
-      <c r="H24">
+      <c r="H29" s="2">
         <v>3.7</v>
       </c>
-      <c r="I24">
+      <c r="I29" s="2">
         <v>5</v>
       </c>
-      <c r="J24">
+      <c r="J29" s="2">
         <v>6.2</v>
       </c>
-      <c r="K24">
+      <c r="K29" s="2">
         <v>7.4</v>
       </c>
-      <c r="L24">
+      <c r="L29" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="M24">
+      <c r="M29" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="N24">
+      <c r="N29" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2">
         <v>5.5</v>
       </c>
-      <c r="F25">
+      <c r="F30" s="2">
         <v>7.5</v>
       </c>
-      <c r="G25">
+      <c r="G30" s="2">
         <v>9.4</v>
       </c>
-      <c r="H25">
+      <c r="H30" s="2">
         <v>11.3</v>
       </c>
-      <c r="I25">
+      <c r="I30" s="2">
         <v>15.2</v>
       </c>
-      <c r="J25">
+      <c r="J30" s="2">
         <v>19.2</v>
       </c>
-      <c r="K25">
+      <c r="K30" s="2">
         <v>23.1</v>
       </c>
-      <c r="L25">
+      <c r="L30" s="2">
         <v>29</v>
       </c>
-      <c r="M25">
+      <c r="M30" s="2">
         <v>36</v>
       </c>
-      <c r="N25">
+      <c r="N30" s="2">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E26">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2">
         <v>2</v>
       </c>
-      <c r="F26">
+      <c r="F31" s="2">
         <v>2.5</v>
       </c>
-      <c r="G26">
+      <c r="G31" s="2">
         <v>3</v>
       </c>
-      <c r="H26">
+      <c r="H31" s="2">
         <v>4</v>
       </c>
-      <c r="I26">
+      <c r="I31" s="2">
         <v>5</v>
       </c>
-      <c r="J26">
+      <c r="J31" s="2">
         <v>6</v>
       </c>
-      <c r="K26">
+      <c r="K31" s="2">
         <v>8</v>
       </c>
-      <c r="L26">
+      <c r="L31" s="2">
         <v>10</v>
       </c>
-      <c r="M26">
+      <c r="M31" s="2">
         <v>12</v>
       </c>
-      <c r="N26">
+      <c r="N31" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E27">
-        <f>PI()/4*E25*E25 * E24 * 0.5  - ((6*(E26/COS(RADIANS(30)))*SIN(RADIANS(180/6))*E26)/4 * E24 *2/3)</f>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2">
+        <f>PI()/4*E30*E30 * E29 * 0.5  - ((6*(E31/COS(RADIANS(30)))*SIN(RADIANS(180/6))*E31)/4 * E29 *2/3)</f>
         <v>18.182517674793012</v>
       </c>
-      <c r="F27">
-        <f t="shared" ref="F27:N27" si="6">PI()/4*F25*F25 * F24 * 0.5  - ((6*(F26/COS(RADIANS(30)))*SIN(RADIANS(180/6))*F26)/4 * F24 *2/3)</f>
+      <c r="F32" s="2">
+        <f t="shared" ref="F32:N32" si="6">PI()/4*F30*F30 * F29 * 0.5  - ((6*(F31/COS(RADIANS(30)))*SIN(RADIANS(180/6))*F31)/4 * F29 *2/3)</f>
         <v>46.202210407795178</v>
       </c>
-      <c r="G27">
+      <c r="G32" s="2">
         <f t="shared" si="6"/>
         <v>91.458489152197174</v>
       </c>
-      <c r="H27">
+      <c r="H32" s="2">
         <f t="shared" si="6"/>
         <v>151.35272330978151</v>
       </c>
-      <c r="I27">
+      <c r="I32" s="2">
         <f t="shared" si="6"/>
         <v>381.47719552966294</v>
       </c>
-      <c r="J27">
+      <c r="J32" s="2">
         <f t="shared" si="6"/>
         <v>768.67587467686519</v>
       </c>
-      <c r="K27">
+      <c r="K32" s="2">
         <f t="shared" si="6"/>
         <v>1277.2232742026893</v>
       </c>
-      <c r="L27">
+      <c r="L32" s="2">
         <f t="shared" si="6"/>
         <v>2398.2191269490472</v>
       </c>
-      <c r="M27">
+      <c r="M32" s="2">
         <f t="shared" si="6"/>
         <v>4343.1556254060515</v>
       </c>
-      <c r="N27">
+      <c r="N32" s="2">
         <f t="shared" si="6"/>
         <v>6777.885107036298</v>
       </c>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A7:Q7"/>
+    <mergeCell ref="A12:Q12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daten-Tabelle.xlsx
+++ b/Daten-Tabelle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marvi\Desktop\Hochsprachenprogrammierung\Sprint\HSP-SoSe-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ECF4C3-4C05-46C2-A56A-A68FC48106B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA1921C-97FB-46C0-B081-3005A8CC4665}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{BCA7EF73-EA4B-48ED-AA2D-05ECA064157F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCA7EF73-EA4B-48ED-AA2D-05ECA064157F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -221,10 +221,10 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -545,7 +545,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,91 +554,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>7.85</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>2.7</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>4.5069999999999997</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>8.73</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>8.9600000000000009</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>8.9</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>3.6</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>4.8</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>5.8</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>6.8</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>10.9</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>12.9</v>
       </c>
     </row>
@@ -674,1004 +674,1004 @@
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="O13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="P13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="Q13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>1.6</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="D14" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E14" s="1">
         <v>3</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>4</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>5</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>6</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>8</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>10</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <v>12</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1">
         <v>16</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="1">
         <v>20</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="1">
         <v>24</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="1">
         <v>30</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="1">
         <v>36</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="1">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>0.35</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>0.4</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>0.45</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>0.5</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>0.7</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>0.8</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>1</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>1.25</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>1.5</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="1">
         <v>1.75</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="1">
         <v>2</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="1">
         <v>2.5</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="1">
         <v>3</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="1">
         <v>3.5</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="1">
         <v>4</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="1">
         <v>4.5</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <f>B14-(0.6495*B15)</f>
         <v>1.3726750000000001</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <f t="shared" ref="C16:Q16" si="0">C14-(0.6495*C15)</f>
         <v>1.7402</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>-4.2275000000000007E-2</v>
-      </c>
-      <c r="E16" s="2">
+        <v>2.2077249999999999</v>
+      </c>
+      <c r="E16" s="1">
         <f t="shared" si="0"/>
         <v>2.6752500000000001</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <f t="shared" si="0"/>
         <v>3.54535</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <f t="shared" si="0"/>
         <v>4.4804000000000004</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <f t="shared" si="0"/>
         <v>5.3505000000000003</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <f t="shared" si="0"/>
         <v>7.1881250000000003</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <f t="shared" si="0"/>
         <v>9.0257500000000004</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="1">
         <f t="shared" si="0"/>
         <v>10.863375</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="1">
         <f t="shared" si="0"/>
         <v>14.701000000000001</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="1">
         <f t="shared" si="0"/>
         <v>18.376249999999999</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="1">
         <f t="shared" si="0"/>
         <v>22.051500000000001</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="1">
         <f t="shared" si="0"/>
         <v>27.726749999999999</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="1">
         <f t="shared" si="0"/>
         <v>33.402000000000001</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="1">
         <f t="shared" si="0"/>
         <v>39.077249999999999</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <f>B14 -(1.2269 * B15)</f>
         <v>1.170585</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <f t="shared" ref="C17:Q17" si="1">C14 -(1.2269 * C15)</f>
         <v>1.5092399999999999</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <f t="shared" si="1"/>
-        <v>-0.30210500000000007</v>
-      </c>
-      <c r="E17" s="2">
+        <v>1.9478949999999999</v>
+      </c>
+      <c r="E17" s="1">
         <f t="shared" si="1"/>
         <v>2.3865499999999997</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <f t="shared" si="1"/>
         <v>3.1411699999999998</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <f t="shared" si="1"/>
         <v>4.0184800000000003</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <f t="shared" si="1"/>
         <v>4.7730999999999995</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <f t="shared" si="1"/>
         <v>6.4663749999999993</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <f t="shared" si="1"/>
         <v>8.1596499999999992</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="1">
         <f t="shared" si="1"/>
         <v>9.852924999999999</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="1">
         <f t="shared" si="1"/>
         <v>13.546199999999999</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="1">
         <f t="shared" si="1"/>
         <v>16.932749999999999</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="1">
         <f t="shared" si="1"/>
         <v>20.319299999999998</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="1">
         <f t="shared" si="1"/>
         <v>25.705849999999998</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="1">
         <f t="shared" si="1"/>
         <v>31.092399999999998</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17" s="1">
         <f t="shared" si="1"/>
         <v>36.478949999999998</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <f>B14-B15</f>
         <v>1.25</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <f t="shared" ref="C18:Q18" si="2">C14-C15</f>
         <v>1.6</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <f t="shared" si="2"/>
-        <v>-0.2</v>
-      </c>
-      <c r="E18" s="2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E18" s="1">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <f t="shared" si="2"/>
         <v>3.3</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <f t="shared" si="2"/>
         <v>4.2</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <f t="shared" si="2"/>
         <v>6.75</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="1">
         <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="1">
         <f t="shared" si="2"/>
         <v>10.25</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="1">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="1">
         <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="1">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="1">
         <f t="shared" si="2"/>
         <v>26.5</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18" s="1">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18" s="1">
         <f t="shared" si="2"/>
         <v>37.5</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>1.6</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>2</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>2.5</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>3</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>4</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>5</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>6</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="1">
         <v>8</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="1">
         <v>10</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="1">
         <v>12</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="1">
         <v>16</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="1">
         <v>20</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="1">
         <v>24</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20" s="1">
         <v>30</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P20" s="1">
         <v>36</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20" s="1">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>3</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>3.8</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>4.5</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>5.5</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>7</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>8.5</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>10</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="1">
         <v>13</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="1">
         <v>16</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="1">
         <v>18</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="1">
         <v>24</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="1">
         <v>30</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="1">
         <v>36</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="1">
         <v>45</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P21" s="1">
         <v>54</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q21" s="1">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>1.5</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>1.5</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>2</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>2.5</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>3</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <v>4</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>5</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="1">
         <v>6</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="1">
         <v>8</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="1">
         <v>10</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="1">
         <v>14</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="1">
         <v>17</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="1">
         <v>19</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22" s="1">
         <v>22</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P22" s="1">
         <v>27</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q22" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <f>PI()/4*B21*B21 * B20 - ((6*(B22/COS(RADIANS(30)))*SIN(RADIANS(180/6))*B22)/4 * B20 *2/3)</f>
         <v>9.2312725838406031</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <f t="shared" ref="C23:Q23" si="3">PI()/4*C21*C21 * C20 - ((6*(C22/COS(RADIANS(30)))*SIN(RADIANS(180/6))*C22)/4 * C20 *2/3)</f>
         <v>20.08422274756499</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <f t="shared" si="3"/>
         <v>33.987279330099561</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <f t="shared" si="3"/>
         <v>60.449565781012943</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <f t="shared" si="3"/>
         <v>133.15343033507332</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <f t="shared" si="3"/>
         <v>237.53706499215818</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <f t="shared" si="3"/>
         <v>384.63635766002511</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="1">
         <f t="shared" si="3"/>
         <v>895.58143938673788</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="1">
         <f t="shared" si="3"/>
         <v>1641.1151260161071</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="1">
         <f t="shared" si="3"/>
         <v>2360.8077362617282</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="1">
         <f t="shared" si="3"/>
         <v>5427.6590296922177</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="1">
         <f t="shared" si="3"/>
         <v>10800.082385238031</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="1">
         <f t="shared" si="3"/>
         <v>19426.861742055316</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="1">
         <f t="shared" si="3"/>
         <v>39329.812517761631</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P23" s="1">
         <f t="shared" si="3"/>
         <v>67295.977136197995</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23" s="1">
         <f t="shared" si="3"/>
         <v>106093.62266472042</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>1.4</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>1.7</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>2</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>2.8</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <v>3.5</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <v>4</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="1">
         <v>5.3</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="1">
         <v>6.4</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="1">
         <v>7.5</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="1">
         <v>10</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="1">
         <v>12.5</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="1">
         <v>15</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="1">
         <v>18.7</v>
       </c>
-      <c r="P25" s="2">
+      <c r="P25" s="1">
         <v>22.5</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25" s="1">
         <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>3.2</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>4</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>5</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>5.5</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>7</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <v>8</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>10</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="1">
         <v>13</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="1">
         <v>17</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="1">
         <v>19</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="1">
         <v>24</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="1">
         <v>30</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="1">
         <v>36</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="1">
         <v>46</v>
       </c>
-      <c r="P26" s="2">
+      <c r="P26" s="1">
         <v>55</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="Q26" s="1">
         <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <f t="shared" ref="B27:D27" si="4">((6*(B26/COS(RADIANS(30)))*SIN(RADIANS(180/6))*B26)/4) *B25</f>
         <v>9.7549101482279159</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <f t="shared" si="4"/>
         <v>19.39896904477142</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <f t="shared" si="4"/>
         <v>36.806079660838627</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <f>((6*(E26/COS(RADIANS(30)))*SIN(RADIANS(180/6))*E26)/4) *E25</f>
         <v>52.394536928958516</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <f t="shared" ref="F27:Q27" si="5">((6*(F26/COS(RADIANS(30)))*SIN(RADIANS(180/6))*F26)/4) *F25</f>
         <v>118.81868539922495</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="1">
         <f t="shared" si="5"/>
         <v>193.98969044771422</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="1">
         <f t="shared" si="5"/>
         <v>346.41016151377534</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="1">
         <f t="shared" si="5"/>
         <v>775.69895416972145</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="1">
         <f t="shared" si="5"/>
         <v>1601.8005868396976</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="1">
         <f t="shared" si="5"/>
         <v>2344.763780746367</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="1">
         <f t="shared" si="5"/>
         <v>4988.3063257983658</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="1">
         <f t="shared" si="5"/>
         <v>9742.7857925749322</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="1">
         <f t="shared" si="5"/>
         <v>16835.533849569481</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27" s="1">
         <f t="shared" si="5"/>
         <v>34267.932407427201</v>
       </c>
-      <c r="P27" s="2">
+      <c r="P27" s="1">
         <f t="shared" si="5"/>
         <v>58943.85404507834</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="Q27" s="1">
         <f t="shared" si="5"/>
         <v>95132.89060572056</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
         <v>1.9</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>2.5</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="1">
         <v>3.1</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="1">
         <v>3.7</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="1">
         <v>5</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="1">
         <v>6.2</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="1">
         <v>7.4</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="1">
         <v>10.199999999999999</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29" s="1">
         <v>14</v>
       </c>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
         <v>5.5</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>7.5</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="1">
         <v>9.4</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="1">
         <v>11.3</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="1">
         <v>15.2</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="1">
         <v>19.2</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="1">
         <v>23.1</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="1">
         <v>29</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="1">
         <v>36</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30" s="1">
         <v>39</v>
       </c>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1">
         <v>2</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>2.5</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="1">
         <v>3</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="1">
         <v>4</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="1">
         <v>5</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="1">
         <v>6</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="1">
         <v>8</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="1">
         <v>10</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="1">
         <v>12</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="1">
         <v>14</v>
       </c>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1">
         <f>PI()/4*E30*E30 * E29 * 0.5  - ((6*(E31/COS(RADIANS(30)))*SIN(RADIANS(180/6))*E31)/4 * E29 *2/3)</f>
         <v>18.182517674793012</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <f t="shared" ref="F32:N32" si="6">PI()/4*F30*F30 * F29 * 0.5  - ((6*(F31/COS(RADIANS(30)))*SIN(RADIANS(180/6))*F31)/4 * F29 *2/3)</f>
         <v>46.202210407795178</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="1">
         <f t="shared" si="6"/>
         <v>91.458489152197174</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="1">
         <f t="shared" si="6"/>
         <v>151.35272330978151</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="1">
         <f t="shared" si="6"/>
         <v>381.47719552966294</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="1">
         <f t="shared" si="6"/>
         <v>768.67587467686519</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="1">
         <f t="shared" si="6"/>
         <v>1277.2232742026893</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="1">
         <f t="shared" si="6"/>
         <v>2398.2191269490472</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="1">
         <f t="shared" si="6"/>
         <v>4343.1556254060515</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N32" s="1">
         <f t="shared" si="6"/>
         <v>6777.885107036298</v>
       </c>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
